--- a/doc/Connecteurs-Import/Siham/Partie_B_SIHAM_INTERV/B_V15_SIHAM_INTERV_Suivi_deploiement_MPD_OSE.xlsx
+++ b/doc/Connecteurs-Import/Siham/Partie_B_SIHAM_INTERV/B_V15_SIHAM_INTERV_Suivi_deploiement_MPD_OSE.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18450" windowHeight="6870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="B_SIHAM_REF_MPD_OSE_2020" sheetId="8" r:id="rId1"/>
+    <sheet name="B_SIHAM_REF_MPD_OSE" sheetId="8" r:id="rId1"/>
     <sheet name="histo_vs_UM_SELECT_INTERVENANT" sheetId="6" r:id="rId2"/>
     <sheet name="histo_vs_UM_INSERT_INTERVENANT" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B_SIHAM_REF_MPD_OSE_2020!$A$4:$E$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B_SIHAM_REF_MPD_OSE!$A$4:$E$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">histo_vs_UM_INSERT_INTERVENANT!$A$17:$G$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">histo_vs_UM_SELECT_INTERVENANT!$A$17:$G$17</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="217">
   <si>
     <t>Etapes</t>
   </si>
@@ -790,6 +790,22 @@
   </si>
   <si>
     <t>le script de lancement a changé ainsi que les variables à paramétrer, repartir de celui livré et réadapter.</t>
+  </si>
+  <si>
+    <t>v2.3 : 11/06/21 MYP numero_compl  limité à table ose
+18/06 : correction pb dates statut quand insert auto (AI )</t>
+  </si>
+  <si>
+    <t>v3.2 : 15/06/21 : correction pb id_grade_ose à null + report modifs V14 depuis 03/2021 + date_deb_statut au 01/09 si 1er enreg</t>
+  </si>
+  <si>
+    <t>14/06/21 MYP actualisation</t>
+  </si>
+  <si>
+    <t>v3.2 : 15/06/21 MYP : report modifs V14 depuis ex v2.2</t>
+  </si>
+  <si>
+    <t>Livraison caen v2.1 16/07/2021</t>
   </si>
 </sst>
 </file>
@@ -866,7 +882,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,6 +955,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -1286,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1711,6 +1733,100 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1723,15 +1839,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1741,80 +1848,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2137,10 +2172,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,13 +2192,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="190" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
       <c r="F1" t="s">
         <v>185</v>
       </c>
@@ -2196,23 +2231,26 @@
       <c r="E4" s="53" t="s">
         <v>3</v>
       </c>
+      <c r="F4" s="160" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="169" t="s">
         <v>174</v>
       </c>
       <c r="B5" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="161"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="193"/>
     </row>
     <row r="6" spans="1:27" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="174"/>
-      <c r="B6" s="165"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="194"/>
       <c r="C6" s="48" t="s">
         <v>154</v>
       </c>
@@ -2222,8 +2260,8 @@
       <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="174"/>
-      <c r="B7" s="166"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="195"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -2231,21 +2269,21 @@
       <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="174"/>
+      <c r="A8" s="170"/>
       <c r="B8" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="175" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="177"/>
       <c r="O8" s="8"/>
       <c r="AA8" s="10"/>
     </row>
     <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="174"/>
-      <c r="B9" s="165"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="194"/>
       <c r="C9" s="102" t="s">
         <v>153</v>
       </c>
@@ -2255,8 +2293,8 @@
       <c r="AA9" s="10"/>
     </row>
     <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="174"/>
-      <c r="B10" s="166"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="195"/>
       <c r="C10" s="139" t="s">
         <v>176</v>
       </c>
@@ -2266,7 +2304,7 @@
       <c r="AA10" s="10"/>
     </row>
     <row r="11" spans="1:27" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
+      <c r="A11" s="170"/>
       <c r="B11" s="122"/>
       <c r="C11" s="123"/>
       <c r="D11" s="124"/>
@@ -2278,15 +2316,15 @@
       <c r="AA11" s="10"/>
     </row>
     <row r="12" spans="1:27" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
+      <c r="A12" s="170"/>
       <c r="B12" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="162" t="s">
+      <c r="C12" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="163"/>
-      <c r="E12" s="164"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="177"/>
       <c r="F12" s="157" t="s">
         <v>208</v>
       </c>
@@ -2294,8 +2332,8 @@
       <c r="AA12" s="10"/>
     </row>
     <row r="13" spans="1:27" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="174"/>
-      <c r="B13" s="165"/>
+      <c r="A13" s="170"/>
+      <c r="B13" s="194"/>
       <c r="C13" s="93" t="s">
         <v>124</v>
       </c>
@@ -2305,8 +2343,8 @@
       <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="174"/>
-      <c r="B14" s="167"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="196"/>
       <c r="C14" s="141" t="s">
         <v>179</v>
       </c>
@@ -2315,35 +2353,35 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="174"/>
-      <c r="B15" s="167"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="196"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="49"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="174"/>
-      <c r="B16" s="166"/>
+      <c r="A16" s="170"/>
+      <c r="B16" s="195"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="49"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="174"/>
+      <c r="A17" s="170"/>
       <c r="B17" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="175" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="163"/>
-      <c r="E17" s="164"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="177"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="174"/>
+      <c r="A18" s="170"/>
       <c r="C18" s="99" t="s">
         <v>123</v>
       </c>
@@ -2352,7 +2390,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="174"/>
+      <c r="A19" s="170"/>
       <c r="C19" s="140" t="s">
         <v>184</v>
       </c>
@@ -2360,27 +2398,29 @@
       <c r="E19" s="29"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="174"/>
-      <c r="C20" s="107"/>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="170"/>
+      <c r="C20" s="161" t="s">
+        <v>215</v>
+      </c>
       <c r="D20" s="108"/>
       <c r="E20" s="108"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="174"/>
+      <c r="A21" s="170"/>
       <c r="B21" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="175" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="163"/>
-      <c r="E21" s="164"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="177"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="174"/>
+      <c r="A22" s="170"/>
       <c r="C22" s="142" t="s">
         <v>187</v>
       </c>
@@ -2388,334 +2428,341 @@
       <c r="E22" s="29"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="174"/>
-      <c r="C23" s="107"/>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="170"/>
+      <c r="C23" s="161" t="s">
+        <v>212</v>
+      </c>
       <c r="D23" s="108"/>
       <c r="E23" s="108"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="174"/>
-      <c r="B24" s="115" t="s">
+      <c r="A24" s="170"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="170"/>
+      <c r="B25" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C25" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="163"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="174"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="100" t="s">
+      <c r="D25" s="176"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="170"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="174"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="142" t="s">
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="170"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="174"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="174"/>
-      <c r="B28" s="114" t="s">
+      <c r="A28" s="170"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="170"/>
+      <c r="B29" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="185" t="s">
+      <c r="C29" s="184" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="186"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="174"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="99" t="s">
+      <c r="D29" s="185"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="170"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="174"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="142" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="170"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="175"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="176" t="s">
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="170"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="162" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="171"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="172" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="119"/>
-      <c r="C32" s="179" t="s">
+      <c r="B34" s="119"/>
+      <c r="C34" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="180"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="177"/>
-      <c r="B33" s="116" t="s">
+      <c r="D34" s="179"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="173"/>
+      <c r="B35" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="182" t="s">
+      <c r="C35" s="181" t="s">
         <v>182</v>
       </c>
-      <c r="D33" s="183"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="177"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="177"/>
-      <c r="B35" s="116" t="s">
+      <c r="D35" s="182"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="173"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="163" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="173"/>
+      <c r="B37" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="188" t="s">
+      <c r="C37" s="187" t="s">
         <v>206</v>
       </c>
-      <c r="D35" s="189"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="177"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="155" t="s">
+      <c r="D37" s="188"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="173"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="155" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="177"/>
-      <c r="B37" s="116" t="s">
+      <c r="D38" s="126"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="173"/>
+      <c r="B39" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="182" t="s">
+      <c r="C39" s="181" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="183"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="156" t="s">
+      <c r="D39" s="182"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="156" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="177"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="120" t="s">
+    <row r="40" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="173"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="192" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="159" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="177"/>
-      <c r="B39" s="109"/>
-      <c r="C39" s="121" t="s">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="173"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="177"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="121" t="s">
+      <c r="D41" s="73"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="173"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="177"/>
-      <c r="B41" s="116" t="s">
+      <c r="D42" s="73"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="173"/>
+      <c r="B43" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="182" t="s">
+      <c r="C43" s="181" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="183"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="178"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="121" t="s">
+      <c r="D43" s="182"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="174"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="168" t="s">
+      <c r="D44" s="47"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="118"/>
-      <c r="C43" s="117" t="s">
+      <c r="B45" s="118"/>
+      <c r="C45" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="168"/>
-      <c r="B44" s="112" t="s">
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="164"/>
+      <c r="B46" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="170" t="s">
+      <c r="C46" s="166" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="171"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="168"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="168"/>
-      <c r="B46" s="112" t="s">
+      <c r="D46" s="167"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="164"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="164"/>
+      <c r="B48" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="170" t="s">
+      <c r="C48" s="166" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="171"/>
-      <c r="E46" s="172"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="169"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="47" t="s">
+      <c r="D48" s="167"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="165"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="47"/>
+      <c r="E49" s="50"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F62" s="1"/>
     </row>
-    <row r="70" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P70" s="11"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="72" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P72" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E66"/>
+  <autoFilter ref="A4:E68"/>
   <mergeCells count="21">
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A5:A31"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C35:E35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C12:E12"/>
@@ -2723,6 +2770,20 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A5:A33"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2752,11 +2813,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
       <c r="D1" s="32" t="s">
         <v>4</v>
       </c>
@@ -3397,11 +3458,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
       <c r="D1" s="110" t="s">
         <v>4</v>
       </c>

--- a/doc/Connecteurs-Import/Siham/Partie_B_SIHAM_INTERV/B_V15_SIHAM_INTERV_Suivi_deploiement_MPD_OSE.xlsx
+++ b/doc/Connecteurs-Import/Siham/Partie_B_SIHAM_INTERV/B_V15_SIHAM_INTERV_Suivi_deploiement_MPD_OSE.xlsx
@@ -12,7 +12,7 @@
     <sheet name="histo_vs_UM_INSERT_INTERVENANT" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B_SIHAM_REF_MPD_OSE!$A$4:$E$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">B_SIHAM_REF_MPD_OSE!$A$4:$E$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">histo_vs_UM_INSERT_INTERVENANT!$A$17:$G$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">histo_vs_UM_SELECT_INTERVENANT!$A$17:$G$17</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="240">
   <si>
     <t>Etapes</t>
   </si>
@@ -431,15 +431,6 @@
     <t>ajout row_number sur v_nation pour double nationalité</t>
   </si>
   <si>
-    <t>v2.1: 16/09/2019 : annee_id dans  um_synchro_a_valider + um_transfert_individu</t>
-  </si>
-  <si>
-    <t>v2.0 : 15/11/2019 : renommage prose_annee_id</t>
-  </si>
-  <si>
-    <t>v1.8 : 02/12/2019 : UM_STRUCTURE renommage tem_manu en eotp_DU_defaut + eotp_DN_defaut</t>
-  </si>
-  <si>
     <t>livré CAEN : v1.1  - 12/2019</t>
   </si>
   <si>
@@ -531,31 +522,8 @@
     <t>v1.15b</t>
   </si>
   <si>
-    <t>v1.1 : 01/03/2019</t>
-  </si>
-  <si>
     <t>DBLINK SIHAM : (déjà créé Partie_A)
 DBLINK BI : (si utile et pas déjà créé en Partie_A)</t>
-  </si>
-  <si>
-    <t>B_3P_OSE_procedures_diverses_v2.1.sql</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">B_4P_OSE_procedure_SELECT_intervenant_v2.4.sql
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>voir historique versions dans onglet "histo_vs_UM_SELECT_INTERVENANT"</t>
-    </r>
   </si>
   <si>
     <t>Test UO HZP% : personnels détachés  SAUF si dossier présent dans orec  
@@ -656,49 +624,18 @@
     </r>
   </si>
   <si>
-    <t>v1.1b : 03/12/20 : modif libellé</t>
-  </si>
-  <si>
     <t>1ere install : B_0b_OREC-createTables_utf8_v1.1.sql  (TABLES UM_OREC : infos compl. Vacataires)</t>
   </si>
   <si>
-    <t>1ere install : B_1T_OSE_create_table_v2.0_utf8.sql 
-Montée version : B_1T_OSE_alter_tables_v2.0.sql</t>
-  </si>
-  <si>
-    <t>v2.0 : 03/12/20 - 02/02/2021 : V15</t>
-  </si>
-  <si>
-    <t>!! A LANCER obligatoirement 1 fois avant synchro INTERVENANT + vérif tables :
-- UM_VOIRIE
-- ADRESSE_NUMERO_COMPL
-- UM_ADRESSE_STRUCTURE</t>
-  </si>
-  <si>
     <t>Etape 6b</t>
   </si>
   <si>
     <t>B_recompiler_fonction_proc.sql</t>
   </si>
   <si>
-    <t>B_2F_OSE_function_v3.1.sql</t>
-  </si>
-  <si>
-    <t>v3.1 : 03/2021 :  objet T_UM_ENREG_STATUT</t>
-  </si>
-  <si>
     <t>Code couleurs :</t>
   </si>
   <si>
-    <t>Déjà inclus dans la livraison CAEN 12/2019</t>
-  </si>
-  <si>
-    <t>v2.2 - 04/12/2020 - V15 : decoupage adr + new proc</t>
-  </si>
-  <si>
-    <t>v3.0 : 01-03/21 : V15</t>
-  </si>
-  <si>
     <t>v_orec pb nb_h_service_rectorat avec .</t>
   </si>
   <si>
@@ -733,9 +670,6 @@
   </si>
   <si>
     <t>livré Caen v2.0  le 15/03/2021</t>
-  </si>
-  <si>
-    <t>Livraison caen v2.0 03/2021</t>
   </si>
   <si>
     <t>test date fin fonction</t>
@@ -751,61 +685,171 @@
     <t>correction nss né en 2000 ou plus</t>
   </si>
   <si>
-    <t>B_reformater_data_V14_V15.sql (seulement pour les établissements ayant installé déjà le connecteur Siham)</t>
-  </si>
-  <si>
-    <t>!! Pour les établissements ayant déjà installé le connecteur SIHAM-OSE (passage de v1.1 à v2.0) :</t>
+    <t>lance_synchro_Siham_Ose_2020 _MANUEL.sql</t>
+  </si>
+  <si>
+    <t>automatisation (si besoin) : lance_synchro_Siham_Ose.sh</t>
+  </si>
+  <si>
+    <t>v3.2 : 15/06/21 : correction pb id_grade_ose à null + report modifs V14 depuis 03/2021 + date_deb_statut au 01/09 si 1er enreg</t>
+  </si>
+  <si>
+    <t>v2.2 : 05/10/21 : ajout code employeur orec pour rafp</t>
+  </si>
+  <si>
+    <t>v3.0 30/05/22 : ajout champs sexe
+14/06/22 : ajout table UM_STATUT annualisée</t>
+  </si>
+  <si>
+    <t>v1.1b : 03/12/20 : modif libellé (propre Montpellier) - relivré idem v2.1 pas modifié</t>
+  </si>
+  <si>
+    <t>v3.4 : 14/06/22 : remplacer UM_STATUT_INTERVENANT par UM_STATUT annualisée</t>
+  </si>
+  <si>
+    <t>v3.3 : 25/01/22 : UM_AJOUT_UM_SYNCHRO_A_VALIDER : qd de IE à IE forcer date_deb au 01/09</t>
+  </si>
+  <si>
+    <t>v3.1 : 11/10/21 : ajout EMP_SOURCE_CODE code employeur pour rafp</t>
+  </si>
+  <si>
+    <t>v3.2  25/03/22 : ajout col sexe dans UM_TRANSFERT_INDIVIDU</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Bien faire le </t>
+      <t xml:space="preserve">B_4P_OSE_procedure_SELECT_intervenant.sql
+</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ALTER_TABLES_v2.0</t>
+      <t>voir historique versions dans onglet "histo_vs_UM_SELECT_INTERVENANT"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et suivre pas à pas</t>
-    </r>
-  </si>
-  <si>
-    <t>lance_synchro_Siham_Ose_2020 _MANUEL.sql</t>
-  </si>
-  <si>
-    <t>automatisation (si besoin) : lance_synchro_Siham_Ose.sh</t>
-  </si>
-  <si>
-    <t>le script de lancement a changé ainsi que les variables à paramétrer, repartir de celui livré et réadapter.</t>
-  </si>
-  <si>
-    <t>v2.3 : 11/06/21 MYP numero_compl  limité à table ose
+  </si>
+  <si>
+    <t>B_3P_OSE_procedures_diverses.sql</t>
+  </si>
+  <si>
+    <t>B_2F_OSE_function.sql</t>
+  </si>
+  <si>
+    <t>1ere install : B_1T_OSE_create_table_utf8.sql 
+Montée version : B_1T_OSE_alter_tables.sql</t>
+  </si>
+  <si>
+    <t>v4.0 : 11/10/21 : pb update grade_id pas en même temps que statut</t>
+  </si>
+  <si>
+    <t>v4.1 : 11/10/21 : ajout EMP_SOURCE_CODE code employeur pour rafp</t>
+  </si>
+  <si>
+    <t>v4.2 : 25/01/22 : qd chgt statut de IE à IE forcer date_deb au 01/09 (idem statut_actuel)</t>
+  </si>
+  <si>
+    <t>v4.2b : 04/02/22 : dblink .world</t>
+  </si>
+  <si>
+    <t>v4.3  25/03/22 : dossiers devenant HOSE :les tracer dans cgmt statut table UM_SYNCHRO_A_VALIDER</t>
+  </si>
+  <si>
+    <t>v5.0  30/05/22 : affecter civilite suivant le sexe + 17/06/22 correction param v_uo_a_exclure</t>
+  </si>
+  <si>
+    <t>v2.3 : 11/06/21 numero_compl  limité à table ose
 18/06 : correction pb dates statut quand insert auto (AI )</t>
   </si>
   <si>
-    <t>v3.2 : 15/06/21 : correction pb id_grade_ose à null + report modifs V14 depuis 03/2021 + date_deb_statut au 01/09 si 1er enreg</t>
-  </si>
-  <si>
-    <t>14/06/21 MYP actualisation</t>
-  </si>
-  <si>
-    <t>v3.2 : 15/06/21 MYP : report modifs V14 depuis ex v2.2</t>
-  </si>
-  <si>
-    <t>Livraison caen v2.1 16/07/2021</t>
+    <t>v3.2 : 15/06/21 report modifs V14 depuis ex v2.2</t>
+  </si>
+  <si>
+    <t>v2.4 : 19/07/21 mail perso rempli meme si VAC et compte um validé (règle specif Montpellier)</t>
+  </si>
+  <si>
+    <t>v2.4b- 04/02/22 : dblink .world</t>
+  </si>
+  <si>
+    <t>v2.5 14/06/22 : remplacer UM_STATUT_INTERVENANT par UM_STATUT annualisée</t>
+  </si>
+  <si>
+    <t>!! ALTER TABLE à paramétrer et executer pas à pas pour reformater données du passé.</t>
+  </si>
+  <si>
+    <t>v3.2</t>
+  </si>
+  <si>
+    <t>ajout col sexe dans UM_TRANSFERT_INDIVIDU</t>
+  </si>
+  <si>
+    <t>Livraison caen v3.2 20/06/22</t>
+  </si>
+  <si>
+    <t>v3.1b</t>
+  </si>
+  <si>
+    <t>v3.1b 04/02/22 : dblink .world</t>
+  </si>
+  <si>
+    <t>v3.1</t>
+  </si>
+  <si>
+    <t>ajout EMP_SOURCE_CODE code employeur pour rafp</t>
+  </si>
+  <si>
+    <t>v5.0</t>
+  </si>
+  <si>
+    <t>affecter civilite suivant le sexe + 17/06/22 correction param v_uo_a_exclure</t>
+  </si>
+  <si>
+    <t>Livraison caen v5.0 20/06/22</t>
+  </si>
+  <si>
+    <t>v4.3</t>
+  </si>
+  <si>
+    <t>dossiers devenant HOSE :les tracer dans cgmt statut table UM_SYNCHRO_A_VALIDER</t>
+  </si>
+  <si>
+    <t>v4.2b</t>
+  </si>
+  <si>
+    <t>dblink .world</t>
+  </si>
+  <si>
+    <t>v4.2</t>
+  </si>
+  <si>
+    <t>qd chgt statut de IE à IE forcer date_deb au 01/09 (idem statut_actuel)</t>
+  </si>
+  <si>
+    <t>v4.1</t>
+  </si>
+  <si>
+    <t>v4.0</t>
+  </si>
+  <si>
+    <t>pb update grade_id doit se faire dans le bloc update statut validé</t>
+  </si>
+  <si>
+    <t>Modifications pour OSE V18 Livraison Caen v3.0 : 20/07/22</t>
+  </si>
+  <si>
+    <t>Modifications pour OSE V15 Livraison caen v2.1 : 16/07/21</t>
+  </si>
+  <si>
+    <t>v3.3 : 18/07/22 : correction test format date champs siham</t>
+  </si>
+  <si>
+    <t>v5.1 : 20/07/22 : param C_ORG_RATTACH en multi uai</t>
+  </si>
+  <si>
+    <t>v3.5  26/07/22 MYP : modifier mapping tests statut siham pour les nouveaux codes HU</t>
   </si>
 </sst>
 </file>
@@ -962,7 +1006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -992,19 +1036,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1036,66 +1067,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1308,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1369,9 +1350,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1414,31 +1392,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1489,16 +1461,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1543,13 +1506,13 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1567,88 +1530,43 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,16 +1598,6 @@
     <xf numFmtId="14" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1726,127 +1634,165 @@
     <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2172,568 +2118,615 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AA80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="43" style="2" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="7"/>
     <col min="27" max="27" width="41.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
+      <c r="A1" s="159" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" s="24"/>
-      <c r="F2" s="101" t="s">
-        <v>186</v>
+      <c r="F2" s="131" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="26"/>
-      <c r="F3" s="139" t="s">
-        <v>201</v>
+      <c r="C3" s="25"/>
+      <c r="F3" s="134" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="160" t="s">
-        <v>216</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="113" t="s">
+      <c r="A5" s="170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="193"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:27" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="194"/>
-      <c r="C6" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="O6" s="8"/>
       <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="195"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="O7" s="8"/>
       <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="114" t="s">
+      <c r="A8" s="171"/>
+      <c r="B8" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="175" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
+      <c r="C8" s="163" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
       <c r="O8" s="8"/>
       <c r="AA8" s="10"/>
     </row>
-    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+    <row r="9" spans="1:27" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="171"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="139" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
       <c r="O9" s="8"/>
       <c r="AA9" s="10"/>
     </row>
     <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="135"/>
       <c r="O10" s="8"/>
       <c r="AA10" s="10"/>
     </row>
-    <row r="11" spans="1:27" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="156" t="s">
-        <v>207</v>
+    <row r="11" spans="1:27" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="171"/>
+      <c r="B11" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="163" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="141" t="s">
+        <v>215</v>
       </c>
       <c r="O11" s="8"/>
       <c r="AA11" s="10"/>
     </row>
-    <row r="12" spans="1:27" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
-      <c r="B12" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="175" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="176"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="157" t="s">
+    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="171"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="137" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="171"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="171"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="171"/>
+      <c r="B15" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="163" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="171"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="132" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="171"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="139" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="171"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="139" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="171"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="171"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="171"/>
+      <c r="B21" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="163" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="171"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="171"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="139" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="171"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="171"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="139" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="171"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="171"/>
+      <c r="B27" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="171"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="171"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="138" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="171"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="171"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="171"/>
+      <c r="B32" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="182" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="171"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="140" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="171"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="171"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="136" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="171"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="136" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="171"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="171"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="AA12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
-      <c r="B13" s="194"/>
-      <c r="C13" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="O13" s="8"/>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="141" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
-      <c r="B15" s="196"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="170"/>
-      <c r="B16" s="195"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="170"/>
-      <c r="B17" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="175" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="176"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="170"/>
-      <c r="C18" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="170"/>
-      <c r="C19" s="140" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="170"/>
-      <c r="C20" s="161" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="170"/>
-      <c r="B21" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="175" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="176"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="170"/>
-      <c r="C22" s="142" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="170"/>
-      <c r="C23" s="161" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="170"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="170"/>
-      <c r="B25" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="175" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="176"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="170"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="170"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="142" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="170"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="170"/>
-      <c r="B29" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="184" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="171"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="171"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="136" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="172"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="173" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="103"/>
+      <c r="C42" s="176" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="177"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="174"/>
+      <c r="B43" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="179" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="180"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="174"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="174"/>
+      <c r="B45" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="183"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="174"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="174"/>
+      <c r="B47" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="179" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="180"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="135"/>
+    </row>
+    <row r="48" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="174"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="143"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="174"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="142" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="67"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="174"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="67"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="174"/>
+      <c r="B51" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="180"/>
+      <c r="E51" s="181"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="175"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="142" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="103"/>
+      <c r="C53" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="165"/>
+      <c r="B54" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="167" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="168"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="165"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="165"/>
+      <c r="B56" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="167" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="185"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="170"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="170"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="142" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="170"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="162" t="s">
-        <v>213</v>
-      </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="171"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="172" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="178" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="179"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
-      <c r="B35" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="181" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="182"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="173"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="163" t="s">
-        <v>214</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="173"/>
-      <c r="B37" s="116" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="187" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="173"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="155" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="173"/>
-      <c r="B39" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="181" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="182"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="156" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="173"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="120" t="s">
+      <c r="D56" s="168"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="166"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="159" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="173"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="121" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="173"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="121" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="173"/>
-      <c r="B43" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="181" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43" s="182"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="174"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="164" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="118"/>
-      <c r="C45" s="117" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="164"/>
-      <c r="B46" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="166" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="167"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="164"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="164"/>
-      <c r="B48" s="112" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="166" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="167"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="165"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="46"/>
+      <c r="E57" s="47"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2745,7 +2738,7 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2757,33 +2750,56 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
     </row>
-    <row r="72" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P72" s="11"/>
+    <row r="65" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="6:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="80" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="P80" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E68"/>
-  <mergeCells count="21">
+  <autoFilter ref="A4:E76"/>
+  <mergeCells count="20">
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A5:A41"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C45:E45"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A5:A33"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2795,35 +2811,35 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="34"/>
-    <col min="3" max="3" width="11.42578125" style="129"/>
+    <col min="2" max="2" width="11.42578125" style="33"/>
+    <col min="3" max="3" width="11.42578125" style="108"/>
     <col min="4" max="4" width="90.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9" style="129" customWidth="1"/>
+    <col min="6" max="6" width="9" style="108" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="33"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2877,551 +2893,618 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="86" t="s">
+      <c r="F17" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="80" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="80"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="133" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="134">
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="146">
+        <v>44711</v>
+      </c>
+      <c r="C19" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="148" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" s="149"/>
+      <c r="F19" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="150" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="145" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="146">
+        <v>44596</v>
+      </c>
+      <c r="C20" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="148" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="151">
+        <v>44596</v>
+      </c>
+      <c r="F20" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="150" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="145" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="146">
+        <v>44480</v>
+      </c>
+      <c r="C21" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="148" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="151">
+        <v>44480</v>
+      </c>
+      <c r="F21" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="150" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="113">
         <v>44197</v>
       </c>
-      <c r="C19" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="136" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="137" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="135" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="133" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" s="134">
+      <c r="C22" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="112" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="113">
         <v>44096</v>
       </c>
-      <c r="C20" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="136" t="s">
-        <v>195</v>
-      </c>
-      <c r="E20" s="138">
+      <c r="C23" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="117">
         <v>44096</v>
       </c>
-      <c r="F20" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="135" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="133" t="s">
-        <v>193</v>
-      </c>
-      <c r="B21" s="134">
+      <c r="F23" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="112" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="113">
         <v>43956</v>
       </c>
-      <c r="C21" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="136" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="138">
+      <c r="C24" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="117">
         <v>43956</v>
       </c>
-      <c r="F21" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="135" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="134">
+      <c r="F24" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="113">
         <v>43948</v>
       </c>
-      <c r="C22" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="136" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="138">
+      <c r="C25" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="117">
         <v>43948</v>
       </c>
-      <c r="F22" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="135" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="133" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="134">
+      <c r="F25" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="113">
         <v>43924</v>
       </c>
-      <c r="C23" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="136" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="138">
+      <c r="C26" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="117">
         <v>43924</v>
       </c>
-      <c r="F23" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="135" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="39">
+      <c r="F26" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="38">
         <v>43724</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="74">
+      <c r="C27" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="68">
         <v>43742</v>
       </c>
-      <c r="F24" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="42" t="s">
+      <c r="F27" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="70">
+        <v>43546</v>
+      </c>
+      <c r="C28" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="66"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="76">
-        <v>43546</v>
-      </c>
-      <c r="C25" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B29" s="70">
         <v>43525</v>
       </c>
-      <c r="C26" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="69" t="s">
+      <c r="C29" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="77">
+      <c r="E29" s="71">
         <v>43525</v>
       </c>
-      <c r="F26" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="F29" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B30" s="70">
         <v>43507</v>
       </c>
-      <c r="C27" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="69" t="s">
+      <c r="C30" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="77">
+      <c r="E30" s="71">
         <v>43514</v>
       </c>
-      <c r="F27" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
+      <c r="F30" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B31" s="70">
         <v>43482</v>
       </c>
-      <c r="C28" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="69" t="s">
+      <c r="C31" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="77">
+      <c r="E31" s="71">
         <v>43483</v>
       </c>
-      <c r="F28" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="F31" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B32" s="70">
         <v>43482</v>
       </c>
-      <c r="C29" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="69" t="s">
+      <c r="C32" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="77">
+      <c r="E32" s="71">
         <v>43483</v>
       </c>
-      <c r="F29" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="35">
-        <v>43441</v>
-      </c>
-      <c r="C30" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="36">
-        <v>43479</v>
-      </c>
-      <c r="F30" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="35">
-        <v>43438</v>
-      </c>
-      <c r="C31" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="35">
-        <v>43430</v>
-      </c>
-      <c r="C32" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="18"/>
+      <c r="F32" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="107" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="35">
-        <v>43396</v>
-      </c>
-      <c r="C33" s="130" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="34">
+        <v>43441</v>
+      </c>
+      <c r="C33" s="109" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="E33" s="35">
+        <v>43479</v>
+      </c>
+      <c r="F33" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="34">
+        <v>43438</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="34">
+        <v>43430</v>
+      </c>
+      <c r="C35" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="34">
+        <v>43396</v>
+      </c>
+      <c r="C36" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B37" s="34">
         <v>43381</v>
       </c>
-      <c r="C34" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="C37" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="E37" s="23"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B38" s="34">
         <v>43353</v>
       </c>
-      <c r="C35" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="C38" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="18" t="s">
+      <c r="E38" s="23"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B39" s="26">
         <v>43300</v>
       </c>
-      <c r="C36" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="37" t="s">
+      <c r="C39" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="22" t="s">
+      <c r="E39" s="36"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B40" s="26">
         <v>43297</v>
       </c>
-      <c r="C37" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="37" t="s">
+      <c r="C40" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="27">
-        <v>43258</v>
-      </c>
-      <c r="C38" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="27">
-        <v>43258</v>
-      </c>
-      <c r="C39" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="27">
-        <v>43248</v>
-      </c>
-      <c r="C40" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="131"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="110"/>
       <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="26">
+        <v>43258</v>
+      </c>
+      <c r="C41" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="26">
+        <v>43258</v>
+      </c>
+      <c r="C42" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="36"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="26">
+        <v>43248</v>
+      </c>
+      <c r="C43" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="36"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B44" s="26">
         <v>43242</v>
       </c>
-      <c r="C41" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="37" t="s">
+      <c r="C44" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="E44" s="36"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B45" s="26">
         <v>43195</v>
       </c>
-      <c r="C42" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="37" t="s">
+      <c r="C45" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="E45" s="36"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B46" s="26">
         <v>42834</v>
       </c>
-      <c r="C43" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="37" t="s">
+      <c r="C46" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="18"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A17:G17"/>
@@ -3441,16 +3524,16 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="34"/>
+    <col min="2" max="2" width="11.42578125" style="33"/>
     <col min="4" max="4" width="90.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="9" style="15" customWidth="1"/>
@@ -3458,17 +3541,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="110" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3514,7 +3597,7 @@
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -3522,971 +3605,1098 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="54" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="133" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="134">
-        <v>44197</v>
-      </c>
-      <c r="C19" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="136" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="137" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="135" t="s">
-        <v>200</v>
+      <c r="A18" s="152" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="153">
+        <v>44711</v>
+      </c>
+      <c r="C18" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="139" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="155"/>
+      <c r="F18" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="156" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="152" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="153">
+        <v>44645</v>
+      </c>
+      <c r="C19" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="139" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="157">
+        <v>44645</v>
+      </c>
+      <c r="F19" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="156" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="150" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" s="151">
-        <v>44256</v>
-      </c>
-      <c r="C20" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="153" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="154">
-        <v>44256</v>
-      </c>
-      <c r="F20" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="135" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="150" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="151">
-        <v>44033</v>
-      </c>
-      <c r="C21" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="153" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="154">
-        <v>44033</v>
-      </c>
-      <c r="F21" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="135" t="s">
-        <v>200</v>
+      <c r="A20" s="152" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="153">
+        <v>44596</v>
+      </c>
+      <c r="C20" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="139" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="157">
+        <v>44596</v>
+      </c>
+      <c r="F20" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="156" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="152" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="153">
+        <v>44586</v>
+      </c>
+      <c r="C21" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="139" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="157">
+        <v>44586</v>
+      </c>
+      <c r="F21" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="156" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="150" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="151">
-        <v>43867</v>
-      </c>
-      <c r="C22" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="153" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="154">
-        <v>43867</v>
-      </c>
-      <c r="F22" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="135" t="s">
-        <v>200</v>
+      <c r="A22" s="145" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="146">
+        <v>44480</v>
+      </c>
+      <c r="C22" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="148" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="151">
+        <v>44480</v>
+      </c>
+      <c r="F22" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="156" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="145" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="146">
+        <v>44460</v>
+      </c>
+      <c r="C23" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="148" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="151">
+        <v>44480</v>
+      </c>
+      <c r="F23" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="156" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="113">
+        <v>44197</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="126">
+        <v>44256</v>
+      </c>
+      <c r="C25" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="128" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="129">
+        <v>44256</v>
+      </c>
+      <c r="F25" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="125" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="126">
+        <v>44033</v>
+      </c>
+      <c r="C26" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="129">
+        <v>44033</v>
+      </c>
+      <c r="F26" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="125" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="126">
+        <v>43867</v>
+      </c>
+      <c r="C27" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="129">
+        <v>43867</v>
+      </c>
+      <c r="F27" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="85">
+        <v>43784</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="85">
+        <v>43784</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="120" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="85">
+        <v>43773</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="85">
+        <v>43773</v>
+      </c>
+      <c r="F29" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="85">
+        <v>43727</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="85">
+        <v>43724</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="120" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="85">
+        <v>43714</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="91">
-        <v>43784</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="91">
-        <v>43784</v>
-      </c>
-      <c r="F23" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="42" t="s">
+      <c r="E32" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="85">
+        <v>43711</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="85">
+        <v>43669</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="120" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="92">
+        <v>43581</v>
+      </c>
+      <c r="F35" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="85">
+        <v>43559</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="85">
+        <v>43559</v>
+      </c>
+      <c r="F36" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="120" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="85">
+        <v>43553</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="85">
+        <v>43553</v>
+      </c>
+      <c r="F37" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="85">
+        <v>43536</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="85">
+        <v>43536</v>
+      </c>
+      <c r="F38" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="85">
+        <v>43518</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="85">
+        <v>43518</v>
+      </c>
+      <c r="F39" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="82">
+        <v>43559</v>
+      </c>
+      <c r="C40" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="83">
+        <v>43559</v>
+      </c>
+      <c r="F40" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="81" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="145" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="91">
-        <v>43773</v>
-      </c>
-      <c r="C24" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="91">
-        <v>43773</v>
-      </c>
-      <c r="F24" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="42" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="82">
+        <v>43549</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="83">
+        <v>43553</v>
+      </c>
+      <c r="F41" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="81" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="145" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="91">
-        <v>43727</v>
-      </c>
-      <c r="C25" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="145" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="91">
-        <v>43724</v>
-      </c>
-      <c r="C26" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="99" t="s">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="82">
+        <v>43536</v>
+      </c>
+      <c r="C42" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="83">
+        <v>43536</v>
+      </c>
+      <c r="F42" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="82">
+        <v>43518</v>
+      </c>
+      <c r="C43" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="83">
+        <v>43518</v>
+      </c>
+      <c r="F43" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="82">
+        <v>43515</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="83">
+        <v>43517</v>
+      </c>
+      <c r="F44" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" s="91">
-        <v>43714</v>
-      </c>
-      <c r="C27" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="145" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="91">
-        <v>43711</v>
-      </c>
-      <c r="C28" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" s="91">
-        <v>43669</v>
-      </c>
-      <c r="C29" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="145" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="98">
-        <v>43581</v>
-      </c>
-      <c r="F30" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="145" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="91">
-        <v>43559</v>
-      </c>
-      <c r="C31" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="91">
-        <v>43559</v>
-      </c>
-      <c r="F31" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="145" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="91">
-        <v>43553</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="91">
-        <v>43553</v>
-      </c>
-      <c r="F32" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="145" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="91">
-        <v>43536</v>
-      </c>
-      <c r="C33" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="91">
-        <v>43536</v>
-      </c>
-      <c r="F33" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="145" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="91">
-        <v>43518</v>
-      </c>
-      <c r="C34" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="91">
-        <v>43518</v>
-      </c>
-      <c r="F34" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="88">
-        <v>43559</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="89">
-        <v>43559</v>
-      </c>
-      <c r="F35" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="87" t="s">
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="82">
+        <v>43507</v>
+      </c>
+      <c r="C45" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="83">
+        <v>43514</v>
+      </c>
+      <c r="F45" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="91" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="146" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="88">
-        <v>43549</v>
-      </c>
-      <c r="C36" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="89">
-        <v>43553</v>
-      </c>
-      <c r="F36" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="87" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="146" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="88">
-        <v>43536</v>
-      </c>
-      <c r="C37" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="89">
-        <v>43536</v>
-      </c>
-      <c r="F37" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="97" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="146" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="88">
-        <v>43518</v>
-      </c>
-      <c r="C38" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="89">
-        <v>43518</v>
-      </c>
-      <c r="F38" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="97" t="s">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="82">
+        <v>43496</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="83">
+        <v>43496</v>
+      </c>
+      <c r="F46" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="91" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="146" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="88">
-        <v>43515</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="89">
-        <v>43517</v>
-      </c>
-      <c r="F39" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="146" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="88">
-        <v>43507</v>
-      </c>
-      <c r="C40" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="89">
-        <v>43514</v>
-      </c>
-      <c r="F40" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="146" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="88">
-        <v>43496</v>
-      </c>
-      <c r="C41" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="89">
-        <v>43496</v>
-      </c>
-      <c r="F41" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="147" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="19">
+      <c r="B47" s="19">
         <v>43500</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="23" t="s">
+      <c r="C47" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="147" t="s">
+      <c r="E47" s="55"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B48" s="19">
         <v>43489</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="23" t="s">
+      <c r="C48" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="147" t="s">
+      <c r="E48" s="55"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B49" s="19">
         <v>43438</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="23" t="s">
+      <c r="C49" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="59">
+      <c r="E49" s="56">
         <v>43479</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F49" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G49" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="147" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B50" s="19">
         <v>43423</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="23" t="s">
+      <c r="C50" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="147" t="s">
+      <c r="E50" s="55"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B51" s="19">
         <v>43413</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="23" t="s">
+      <c r="C51" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="144" t="s">
+      <c r="E51" s="55"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="67">
+      <c r="B52" s="64">
         <v>43396</v>
       </c>
-      <c r="C47" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="44" t="s">
+      <c r="C52" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="28"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="144" t="s">
+      <c r="E52" s="144"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="67">
+      <c r="B53" s="64">
         <v>43389</v>
       </c>
-      <c r="C48" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="44" t="s">
+      <c r="C53" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="144" t="s">
+      <c r="E53" s="144"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="67">
+      <c r="B54" s="64">
         <v>43388</v>
       </c>
-      <c r="C49" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="44" t="s">
+      <c r="C54" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="28"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="144" t="s">
+      <c r="E54" s="144"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="27"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="67">
+      <c r="B55" s="64">
         <v>43381</v>
       </c>
-      <c r="C50" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="44" t="s">
+      <c r="C55" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="28"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="144" t="s">
+      <c r="E55" s="144"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="27"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="67">
+      <c r="B56" s="64">
         <v>43375</v>
       </c>
-      <c r="C51" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="44" t="s">
+      <c r="C56" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="28"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="144" t="s">
+      <c r="E56" s="144"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="27"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="67">
+      <c r="B57" s="64">
         <v>43353</v>
       </c>
-      <c r="C52" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="44" t="s">
+      <c r="C57" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="28"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="148" t="s">
+      <c r="E57" s="144"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="68">
+      <c r="B58" s="65">
         <v>43300</v>
       </c>
-      <c r="C53" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="37" t="s">
+      <c r="C58" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="61"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="148" t="s">
+      <c r="E58" s="58"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="60"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="68">
+      <c r="B59" s="65">
         <v>43305</v>
       </c>
-      <c r="C54" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="37" t="s">
+      <c r="C59" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="61"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="148" t="s">
+      <c r="E59" s="58"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B60" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="37" t="s">
+      <c r="C60" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="61"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="63"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="148" t="s">
+      <c r="E60" s="58"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="60"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="68">
+      <c r="B61" s="65">
         <v>43297</v>
       </c>
-      <c r="C56" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="37" t="s">
+      <c r="C61" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="61"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="148" t="s">
+      <c r="E61" s="58"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="68">
+      <c r="B62" s="65">
         <v>43266</v>
       </c>
-      <c r="C57" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="37" t="s">
+      <c r="C62" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E57" s="61"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="63"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="148" t="s">
+      <c r="E62" s="58"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="60"/>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="68">
+      <c r="B63" s="65">
         <v>43258</v>
       </c>
-      <c r="C58" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="37" t="s">
+      <c r="C63" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E58" s="61"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="148" t="s">
+      <c r="E63" s="58"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="68">
+      <c r="B64" s="65">
         <v>43252</v>
       </c>
-      <c r="C59" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="37" t="s">
+      <c r="C64" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="64"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="63"/>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="148" t="s">
+      <c r="E64" s="61"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="60"/>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="68">
+      <c r="B65" s="65">
         <v>43227</v>
       </c>
-      <c r="C60" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="37" t="s">
+      <c r="C65" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="64"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="63"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="148" t="s">
+      <c r="E65" s="61"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="68">
+      <c r="B66" s="65">
         <v>43223</v>
       </c>
-      <c r="C61" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="37" t="s">
+      <c r="C66" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="64"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="63"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="148" t="s">
+      <c r="E66" s="61"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="60"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="68">
+      <c r="B67" s="65">
         <v>43202</v>
       </c>
-      <c r="C62" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="37" t="s">
+      <c r="C67" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="64"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="148" t="s">
+      <c r="E67" s="61"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="68">
+      <c r="B68" s="65">
         <v>43200</v>
       </c>
-      <c r="C63" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="37" t="s">
+      <c r="C68" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="64"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="63"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="148" t="s">
+      <c r="E68" s="61"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="60"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="68">
+      <c r="B69" s="65">
         <v>42834</v>
       </c>
-      <c r="C64" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="37" t="s">
+      <c r="C69" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="61"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="149"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="28"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="124"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="144"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A17:G17"/>
